--- a/biology/Botanique/Anthémis_des_champs/Anthémis_des_champs.xlsx
+++ b/biology/Botanique/Anthémis_des_champs/Anthémis_des_champs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anth%C3%A9mis_des_champs</t>
+          <t>Anthémis_des_champs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthemis arvensis
 L'Anthémis des champs est une espèce de plantes herbacées annuelle de la famille des Astéracées.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anth%C3%A9mis_des_champs</t>
+          <t>Anthémis_des_champs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,16 +525,18 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (30 avril 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (30 avril 2014) :
 sous-espèce Anthemis arvensis subsp. incrassata
 sous-espèce Anthemis arvensis subsp. sphacelata
-Selon The Plant List            (30 avril 2014)[2] :
+Selon The Plant List            (30 avril 2014) :
 sous-espèce Anthemis arvensis subsp. cyllenea (Halácsy) R.Fern.
 sous-espèce Anthemis arvensis subsp. incrassata (Loisel.) Nyman
 sous-espèce Anthemis arvensis subsp. sphacelata (C.Presl) R.Fern.
-Selon Tropicos                                           (30 avril 2014)[3] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (30 avril 2014) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Anthemis arvensis subsp. arvensis
 sous-espèce Anthemis arvensis subsp. incrassata (Loisel.) Nyman
 sous-espèce Anthemis arvensis subsp. sphacelata (C. Presl) R. Fern.
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anth%C3%A9mis_des_champs</t>
+          <t>Anthémis_des_champs</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,8 +571,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractéristiques
-Organes reproducteurs
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : blanc, jaune
 Période de floraison : juillet-octobre
 Inflorescence : corymbe de capitules
